--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D94B800-E928-4A1B-81D2-1D99E171E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8918C9-5F43-4809-98C2-B2AB6F89A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="RegExp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="193">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -646,6 +647,18 @@
   </si>
   <si>
     <t>each party waits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible than synchronized keyword. Provides an option to allow fairness. </t>
+  </si>
+  <si>
+    <t>ExecutorService</t>
+  </si>
+  <si>
+    <t>ThreadPoolExecutor</t>
+  </si>
+  <si>
+    <t>ScheduledThreadPoolExecutor</t>
   </si>
 </sst>
 </file>
@@ -915,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -976,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1348,7 +1358,7 @@
     <col min="3" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="21"/>
+    <col min="6" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1653,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1664,216 +1674,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="42"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="42"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="42"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="42"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1893,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1934,27 +1944,27 @@
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1962,16 +1972,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1979,16 +1989,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2016,10 +2026,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
@@ -2032,58 +2042,82 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D20" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D23" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E27" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2104,195 +2138,195 @@
     <col min="2" max="2" width="73.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>154</v>
       </c>
       <c r="C24" t="s">
@@ -2300,10 +2334,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C25" t="s">
@@ -2311,106 +2345,106 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8918C9-5F43-4809-98C2-B2AB6F89A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26511B6-49DB-4573-96A3-7DBD43F508BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="RegExp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -246,9 +245,6 @@
   </si>
   <si>
     <t>Reuse</t>
-  </si>
-  <si>
-    <t>Advance</t>
   </si>
   <si>
     <t>Fixed</t>
@@ -659,6 +655,9 @@
   </si>
   <si>
     <t>ScheduledThreadPoolExecutor</t>
+  </si>
+  <si>
+    <t>Caller Advances</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1347,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1678,67 +1677,67 @@
         <v>43</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41"/>
       <c r="B5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="42"/>
       <c r="B6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="43"/>
       <c r="B7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
       <c r="B9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
       <c r="B10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44"/>
       <c r="B11" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1758,31 +1757,31 @@
         <v>46</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="B17" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41"/>
       <c r="B18" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1790,13 +1789,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41"/>
       <c r="B20" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1816,19 +1815,19 @@
         <v>50</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41"/>
       <c r="B25" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1836,27 +1835,27 @@
         <v>53</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41"/>
       <c r="B28" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1864,19 +1863,19 @@
         <v>51</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
       <c r="B31" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41"/>
       <c r="B32" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1906,7 +1905,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,7 +1914,8 @@
     <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" style="2"/>
+    <col min="5" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6328125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -1951,7 +1951,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1959,33 +1959,33 @@
         <v>57</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>71</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1993,16 +1993,16 @@
         <v>64</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2033,12 +2033,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2049,46 +2049,46 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D22" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E26" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
@@ -2101,17 +2101,17 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2140,312 +2140,312 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>133</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>135</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>147</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>151</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>156</v>
-      </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>157</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>159</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>174</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>178</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26511B6-49DB-4573-96A3-7DBD43F508BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383AF79-BAA2-4BB0-8A28-FA47B396375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1814,19 +1814,19 @@
       <c r="A23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="A29" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1897,6 +1897,7 @@
     <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1904,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2128,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD17E6F-F78C-4735-B378-CBB3A88596E0}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383AF79-BAA2-4BB0-8A28-FA47B396375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFFAAF4-1E30-47F0-B9DD-5DE14CFDDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2129,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD17E6F-F78C-4735-B378-CBB3A88596E0}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
